--- a/ crazys-wm-mod/Docs&Tools/Jobs.xlsx
+++ b/ crazys-wm-mod/Docs&Tools/Jobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>Job</t>
   </si>
@@ -172,6 +172,51 @@
   </si>
   <si>
     <t>WorkCustService</t>
+  </si>
+  <si>
+    <t>WorkDoctor</t>
+  </si>
+  <si>
+    <t>WorkDoctore</t>
+  </si>
+  <si>
+    <t>WorkEscort</t>
+  </si>
+  <si>
+    <t>WorkExploreCatacombs</t>
+  </si>
+  <si>
+    <t>WorkFarmer</t>
+  </si>
+  <si>
+    <t>WorkFarmHand</t>
+  </si>
+  <si>
+    <t>CleaningJob</t>
+  </si>
+  <si>
+    <t>CleaningJobs use different Calculations for JobPerformance</t>
+  </si>
+  <si>
+    <t>WorkFarmManager</t>
+  </si>
+  <si>
+    <t>For Slaves -1000/MatronJob</t>
+  </si>
+  <si>
+    <t>WorkFarmMarketer</t>
+  </si>
+  <si>
+    <t>if (girl-&gt;morality() &gt; 50)jobperformance -= 5;// too honest to cheat the customer</t>
+  </si>
+  <si>
+    <t>WorkFarmResearch</t>
+  </si>
+  <si>
+    <t>Learning_Job</t>
+  </si>
+  <si>
+    <t>WorkFarmVeterinarian</t>
   </si>
 </sst>
 </file>
@@ -558,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:E37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,6 +669,9 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
+      <c r="I2" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1055,6 +1103,9 @@
       <c r="E28">
         <v>170</v>
       </c>
+      <c r="H28" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1070,6 +1121,9 @@
       <c r="E29">
         <v>270</v>
       </c>
+      <c r="H29" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1085,6 +1139,9 @@
       <c r="E30">
         <v>270</v>
       </c>
+      <c r="H30" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1118,7 +1175,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>47</v>
       </c>
@@ -1134,8 +1191,11 @@
       <c r="E33">
         <v>500</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H33" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>48</v>
       </c>
@@ -1150,7 +1210,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>49</v>
       </c>
@@ -1167,7 +1227,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>50</v>
       </c>
@@ -1184,7 +1244,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>51</v>
       </c>
@@ -1199,6 +1259,177 @@
       </c>
       <c r="E37">
         <v>516.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>202</v>
+      </c>
+      <c r="E38">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>210</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>210</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>250</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>200</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>210</v>
+      </c>
+      <c r="E42">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>200</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43">
+        <v>270</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>210</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>210</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45">
+        <v>-5</v>
+      </c>
+      <c r="C45">
+        <v>210</v>
+      </c>
+      <c r="E45">
+        <v>275</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>500</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>500</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>210</v>
+      </c>
+      <c r="E47">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/ crazys-wm-mod/Docs&Tools/Jobs.xlsx
+++ b/ crazys-wm-mod/Docs&Tools/Jobs.xlsx
@@ -12,15 +12,217 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Job Overview'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Job Overview'!$A$1:$L$113</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$J$113</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+JP Min are with 0 for all Stats/Skills, Level 0 and all negativ traits(estimate = TRUE)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+JP Max are with 100 for all Stats/Skills, Level 10 and all positiv traits(estimate = TRUE)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+JP Min without traits are with 0 for all Stats/Skills, Level 0(estimate = TRUE)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+JP Max without traits are with 100 for all Stats/Skills, Level 10(estimate = TRUE)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Clarified with Issue #7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Clarified with Issue #7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E93" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Clarified with Issue #7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L93" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Clarified with Issue #7</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="388">
   <si>
     <t>Job</t>
   </si>
@@ -1180,14 +1382,17 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Cleaning Job// ACTION_WORKCLEANING(Clarified with Issue #7)</t>
+    <t>JP Min without traits</t>
+  </si>
+  <si>
+    <t>JP Max without traits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1204,7 +1409,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1212,11 +1423,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1239,10 +1456,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1252,7 +1468,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1553,11 +1775,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,13 +1790,16 @@
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
@@ -1593,20 +1818,26 @@
       <c r="F1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1622,17 +1853,24 @@
       <c r="F2" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1648,14 +1886,15 @@
       <c r="F3" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1674,11 +1913,24 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="4">
+        <v>-112</v>
+      </c>
+      <c r="I4" s="4">
+        <v>270</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>200</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1697,11 +1949,23 @@
       <c r="F5" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="4">
+        <v>-570</v>
+      </c>
+      <c r="I5" s="4">
+        <v>547</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1720,11 +1984,23 @@
       <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="4">
+        <v>-490</v>
+      </c>
+      <c r="I6" s="4">
+        <v>456.6</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1743,11 +2019,11 @@
       <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1766,11 +2042,11 @@
       <c r="F8" t="s">
         <v>200</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1789,11 +2065,11 @@
       <c r="F9" t="s">
         <v>202</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1812,11 +2088,11 @@
       <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1835,11 +2111,11 @@
       <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1858,11 +2134,11 @@
       <c r="F12" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1881,11 +2157,11 @@
       <c r="F13" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1904,11 +2180,11 @@
       <c r="F14" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1927,11 +2203,11 @@
       <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1950,11 +2226,11 @@
       <c r="F16" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1973,13 +2249,15 @@
       <c r="F17" t="s">
         <v>211</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>212</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1998,13 +2276,15 @@
       <c r="F18" t="s">
         <v>213</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>214</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2023,13 +2303,15 @@
       <c r="F19" t="s">
         <v>215</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>216</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2048,13 +2330,15 @@
       <c r="F20" t="s">
         <v>217</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>218</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20"/>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2073,13 +2357,15 @@
       <c r="F21" t="s">
         <v>219</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>220</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2098,13 +2384,15 @@
       <c r="F22" t="s">
         <v>221</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>222</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2123,13 +2411,15 @@
       <c r="F23" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>223</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2148,13 +2438,15 @@
       <c r="F24" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>224</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2173,13 +2465,15 @@
       <c r="F25" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>225</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25"/>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2198,13 +2492,15 @@
       <c r="F26" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>226</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2223,13 +2519,15 @@
       <c r="F27" t="s">
         <v>227</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>228</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27"/>
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2248,13 +2546,15 @@
       <c r="F28" t="s">
         <v>229</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>230</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28"/>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2273,13 +2573,15 @@
       <c r="F29" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>231</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2298,13 +2600,15 @@
       <c r="F30" t="s">
         <v>249</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>252</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2323,13 +2627,15 @@
       <c r="F31" t="s">
         <v>251</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>253</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2348,13 +2654,15 @@
       <c r="F32" t="s">
         <v>254</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>255</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32"/>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2373,11 +2681,11 @@
       <c r="F33" t="s">
         <v>256</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2396,11 +2704,11 @@
       <c r="F34" t="s">
         <v>258</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2419,11 +2727,11 @@
       <c r="F35" t="s">
         <v>260</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2442,11 +2750,11 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2465,11 +2773,11 @@
       <c r="F37" t="s">
         <v>264</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2488,11 +2796,11 @@
       <c r="F38" t="s">
         <v>266</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2511,11 +2819,11 @@
       <c r="F39" t="s">
         <v>268</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2534,11 +2842,11 @@
       <c r="F40" t="s">
         <v>270</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2557,11 +2865,11 @@
       <c r="F41" t="s">
         <v>272</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2577,14 +2885,14 @@
       <c r="E42" t="s">
         <v>250</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2600,17 +2908,23 @@
       <c r="F43" t="s">
         <v>182</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="4">
         <v>0</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2629,11 +2943,11 @@
       <c r="F44" t="s">
         <v>275</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2652,11 +2966,11 @@
       <c r="F45" t="s">
         <v>277</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2675,11 +2989,11 @@
       <c r="F46" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2698,11 +3012,11 @@
       <c r="F47" t="s">
         <v>33</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2721,11 +3035,11 @@
       <c r="F48" t="s">
         <v>281</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2738,20 +3052,20 @@
       <c r="D49" t="s">
         <v>58</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>250</v>
       </c>
       <c r="F49" t="s">
         <v>283</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="J49" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2770,11 +3084,11 @@
       <c r="F50" t="s">
         <v>287</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2793,11 +3107,11 @@
       <c r="F51" t="s">
         <v>288</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2816,14 +3130,14 @@
       <c r="F52" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="J52" t="s">
+      <c r="L52" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2839,17 +3153,23 @@
       <c r="F53" t="s">
         <v>182</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="4">
         <v>0</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2868,11 +3188,11 @@
       <c r="F54" t="s">
         <v>36</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2891,11 +3211,11 @@
       <c r="F55" t="s">
         <v>24</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2914,11 +3234,11 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2937,11 +3257,11 @@
       <c r="F57" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2960,14 +3280,14 @@
       <c r="F58" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="J58" t="s">
+      <c r="L58" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2983,17 +3303,23 @@
       <c r="F59" t="s">
         <v>182</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="4">
         <v>0</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3012,11 +3338,11 @@
       <c r="F60" t="s">
         <v>22</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3035,11 +3361,11 @@
       <c r="F61" t="s">
         <v>301</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3058,11 +3384,11 @@
       <c r="F62" t="s">
         <v>31</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3081,14 +3407,14 @@
       <c r="F63" t="s">
         <v>26</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="J63" t="s">
+      <c r="L63" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3107,11 +3433,11 @@
       <c r="F64" t="s">
         <v>32</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="65" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3130,11 +3456,15 @@
       <c r="F65" t="s">
         <v>306</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3153,11 +3483,15 @@
       <c r="F66" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="4" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3176,11 +3510,15 @@
       <c r="F67" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3199,11 +3537,15 @@
       <c r="F68" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3219,11 +3561,15 @@
       <c r="F69" t="s">
         <v>314</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="4" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3239,11 +3585,15 @@
       <c r="F70" t="s">
         <v>315</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="4" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3262,11 +3612,15 @@
       <c r="F71" t="s">
         <v>316</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="4" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3282,11 +3636,15 @@
       <c r="F72" t="s">
         <v>318</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="4" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3302,11 +3660,15 @@
       <c r="F73" t="s">
         <v>317</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3322,11 +3684,15 @@
       <c r="F74" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="4" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3342,11 +3708,15 @@
       <c r="F75" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="4" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3362,11 +3732,15 @@
       <c r="F76" t="s">
         <v>319</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3382,11 +3756,15 @@
       <c r="F77" t="s">
         <v>320</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="4" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3402,11 +3780,15 @@
       <c r="F78" t="s">
         <v>321</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="4" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3422,11 +3804,15 @@
       <c r="F79" t="s">
         <v>322</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="4" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3442,11 +3828,15 @@
       <c r="F80" t="s">
         <v>323</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="4" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3462,17 +3852,23 @@
       <c r="F81" t="s">
         <v>182</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="4">
         <v>0</v>
       </c>
-      <c r="I81" s="5">
+      <c r="I81" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3496,8 +3892,10 @@
       </c>
       <c r="H82"/>
       <c r="I82"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J82"/>
+      <c r="K82"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3521,8 +3919,10 @@
       </c>
       <c r="H83"/>
       <c r="I83"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J83"/>
+      <c r="K83"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3546,8 +3946,10 @@
       </c>
       <c r="H84"/>
       <c r="I84"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J84"/>
+      <c r="K84"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3571,8 +3973,10 @@
       </c>
       <c r="H85"/>
       <c r="I85"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J85"/>
+      <c r="K85"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3596,8 +4000,10 @@
       </c>
       <c r="H86"/>
       <c r="I86"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J86"/>
+      <c r="K86"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3621,11 +4027,13 @@
       </c>
       <c r="H87"/>
       <c r="I87"/>
-      <c r="J87" t="s">
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3641,17 +4049,23 @@
       <c r="F88" t="s">
         <v>182</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H88" s="4">
         <v>0</v>
       </c>
-      <c r="I88" s="5">
+      <c r="I88" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J88" s="4">
+        <v>0</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3675,8 +4089,10 @@
       </c>
       <c r="H89"/>
       <c r="I89"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J89"/>
+      <c r="K89"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3700,8 +4116,10 @@
       </c>
       <c r="H90"/>
       <c r="I90"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J90"/>
+      <c r="K90"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3725,8 +4143,10 @@
       </c>
       <c r="H91"/>
       <c r="I91"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J91"/>
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3750,8 +4170,10 @@
       </c>
       <c r="H92"/>
       <c r="I92"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J92"/>
+      <c r="K92"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3764,7 +4186,7 @@
       <c r="D93" t="s">
         <v>54</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="5" t="s">
         <v>356</v>
       </c>
       <c r="F93" t="s">
@@ -3775,11 +4197,13 @@
       </c>
       <c r="H93"/>
       <c r="I93"/>
-      <c r="J93" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3803,8 +4227,10 @@
       </c>
       <c r="H94"/>
       <c r="I94"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J94"/>
+      <c r="K94"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3828,8 +4254,10 @@
       </c>
       <c r="H95"/>
       <c r="I95"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J95"/>
+      <c r="K95"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3853,8 +4281,10 @@
       </c>
       <c r="H96"/>
       <c r="I96"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96"/>
+      <c r="K96"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3878,8 +4308,10 @@
       </c>
       <c r="H97"/>
       <c r="I97"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97"/>
+      <c r="K97"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3903,8 +4335,10 @@
       </c>
       <c r="H98"/>
       <c r="I98"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98"/>
+      <c r="K98"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3928,8 +4362,10 @@
       </c>
       <c r="H99"/>
       <c r="I99"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99"/>
+      <c r="K99"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3953,8 +4389,10 @@
       </c>
       <c r="H100"/>
       <c r="I100"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100"/>
+      <c r="K100"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3978,8 +4416,10 @@
       </c>
       <c r="H101"/>
       <c r="I101"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101"/>
+      <c r="K101"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4003,8 +4443,10 @@
       </c>
       <c r="H102"/>
       <c r="I102"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102"/>
+      <c r="K102"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -4028,8 +4470,10 @@
       </c>
       <c r="H103"/>
       <c r="I103"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103"/>
+      <c r="K103"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -4053,8 +4497,10 @@
       </c>
       <c r="H104"/>
       <c r="I104"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104"/>
+      <c r="K104"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -4078,8 +4524,10 @@
       </c>
       <c r="H105"/>
       <c r="I105"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105"/>
+      <c r="K105"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4103,8 +4551,10 @@
       </c>
       <c r="H106"/>
       <c r="I106"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106"/>
+      <c r="K106"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -4128,8 +4578,10 @@
       </c>
       <c r="H107"/>
       <c r="I107"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107"/>
+      <c r="K107"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4145,17 +4597,23 @@
       <c r="F108" t="s">
         <v>182</v>
       </c>
-      <c r="G108" s="5" t="s">
+      <c r="G108" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="4">
         <v>0</v>
       </c>
-      <c r="I108" s="5">
+      <c r="I108" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="4">
+        <v>0</v>
+      </c>
+      <c r="K108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4174,11 +4632,11 @@
       <c r="F109" t="s">
         <v>185</v>
       </c>
-      <c r="G109" s="5" t="s">
+      <c r="G109" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4197,11 +4655,11 @@
       <c r="F110" t="s">
         <v>187</v>
       </c>
-      <c r="G110" s="5" t="s">
+      <c r="G110" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4220,11 +4678,11 @@
       <c r="F111" t="s">
         <v>189</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="G111" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4243,11 +4701,11 @@
       <c r="F112" t="s">
         <v>191</v>
       </c>
-      <c r="G112" s="5" t="s">
+      <c r="G112" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -4266,279 +4724,185 @@
       <c r="F113" t="s">
         <v>27</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="G113" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J113" t="s">
+      <c r="L113" t="s">
         <v>286</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:L113"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:I107"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="17" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="5"/>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F42" s="3"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <f>SUM(A1:A26)</f>
+        <v>-490</v>
+      </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="2"/>
-    </row>
-    <row r="65" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="7:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G80" s="5"/>
-    </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-    </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-    </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-    </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-    </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-    </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-    </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-    </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-    </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-    </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-    </row>
-    <row r="93" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E93" s="2"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-    </row>
-    <row r="94" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-    </row>
-    <row r="95" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-    </row>
-    <row r="96" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-    </row>
-    <row r="97" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-    </row>
-    <row r="98" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-    </row>
-    <row r="99" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-    </row>
-    <row r="100" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-    </row>
-    <row r="101" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-    </row>
-    <row r="102" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
-    </row>
-    <row r="103" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
-    </row>
-    <row r="104" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-    </row>
-    <row r="105" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-    </row>
-    <row r="106" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-    </row>
-    <row r="107" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
